--- a/LIFTOFF/YPS1009_S288C_V5/missing_start.xlsx
+++ b/LIFTOFF/YPS1009_S288C_V5/missing_start.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20394"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\yps1009_nanopore_genomeSeq\LIFTOFF\YPS1009_S288C_V5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1805D164-8352-4383-AF87-4231CE64D615}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="178">
   <si>
     <t>seq_id_x</t>
   </si>
@@ -88,9 +82,30 @@
     <t>Parent</t>
   </si>
   <si>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>extra_copy_number_y</t>
+  </si>
+  <si>
+    <t>inframe_stop_codon</t>
+  </si>
+  <si>
+    <t>matches_ref_protein</t>
+  </si>
+  <si>
+    <t>missing_start_codon</t>
+  </si>
+  <si>
+    <t>missing_stop_codon</t>
+  </si>
+  <si>
     <t>transcript_id</t>
   </si>
   <si>
+    <t>valid_ORF</t>
+  </si>
+  <si>
     <t>chrIII_tig00004936</t>
   </si>
   <si>
@@ -475,6 +490,15 @@
     <t>YOR245C_id001</t>
   </si>
   <si>
+    <t>YPD</t>
+  </si>
+  <si>
+    <t>GAL</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>RefSeq:NM_001178783.1</t>
   </si>
   <si>
@@ -524,37 +548,13 @@
   </si>
   <si>
     <t>SGD:S000292166</t>
-  </si>
-  <si>
-    <t>non-essential</t>
-  </si>
-  <si>
-    <t>has paralog</t>
-  </si>
-  <si>
-    <t>deleted to prevent mat typ switch</t>
-  </si>
-  <si>
-    <t>continuous ORF withYDL037C</t>
-  </si>
-  <si>
-    <t>sulfur-metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub-telomeric gene </t>
-  </si>
-  <si>
-    <t>essential for meiosis</t>
-  </si>
-  <si>
-    <t>Note</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,27 +571,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -614,51 +602,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -705,7 +663,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -737,27 +695,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -789,24 +729,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -982,16 +904,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:31">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1062,18 +982,33 @@
         <v>22</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>175</v>
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:31">
       <c r="A2" s="1">
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>241438</v>
@@ -1082,40 +1017,40 @@
         <v>245433</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="N2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="Q2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="S2">
         <v>241438</v>
@@ -1124,33 +1059,36 @@
         <v>245433</v>
       </c>
       <c r="U2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="V2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="W2" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="Y2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="AA2" t="s">
-        <v>169</v>
+        <v>160</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:31">
       <c r="A3" s="1">
         <v>676</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>46438</v>
@@ -1159,46 +1097,46 @@
         <v>46547</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="N3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="O3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="P3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="Q3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="R3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="S3">
         <v>46438</v>
@@ -1207,107 +1145,119 @@
         <v>46547</v>
       </c>
       <c r="U3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="V3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="W3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="X3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Y3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="AA3" t="s">
-        <v>170</v>
+        <v>160</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="3">
+    <row r="4" spans="1:31">
+      <c r="A4" s="1">
         <v>874</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
         <v>381046</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4">
         <v>383253</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="S4" s="4">
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>116</v>
+      </c>
+      <c r="R4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4">
         <v>381046</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4">
         <v>383253</v>
       </c>
-      <c r="U4" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>171</v>
+      <c r="U4" t="s">
+        <v>143</v>
+      </c>
+      <c r="V4" t="s">
+        <v>143</v>
+      </c>
+      <c r="W4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:31">
       <c r="A5" s="1">
         <v>1610</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>235689</v>
@@ -1316,34 +1266,34 @@
         <v>236111</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="N5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="Q5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="R5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="S5">
         <v>235689</v>
@@ -1352,30 +1302,36 @@
         <v>236111</v>
       </c>
       <c r="U5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="V5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="W5" t="s">
-        <v>53</v>
-      </c>
-      <c r="X5" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="Y5" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>168</v>
+        <v>116</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:31">
       <c r="A6" s="1">
         <v>1694</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>373545</v>
@@ -1384,40 +1340,40 @@
         <v>374108</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N6" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="Q6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="R6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="S6">
         <v>373545</v>
@@ -1426,33 +1382,39 @@
         <v>374108</v>
       </c>
       <c r="U6" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="V6" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="W6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="X6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Y6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="AA6" t="s">
-        <v>172</v>
+        <v>160</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:31">
       <c r="A7" s="1">
         <v>1920</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>38804</v>
@@ -1461,40 +1423,40 @@
         <v>40006</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="P7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="Q7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="R7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S7">
         <v>38804</v>
@@ -1503,30 +1465,39 @@
         <v>40006</v>
       </c>
       <c r="U7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="V7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="W7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="X7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Y7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>168</v>
+        <v>116</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:31">
       <c r="A8" s="1">
         <v>2292</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>445786</v>
@@ -1535,40 +1506,40 @@
         <v>446360</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="N8" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="P8" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="Q8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="R8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="S8">
         <v>445786</v>
@@ -1577,30 +1548,39 @@
         <v>446360</v>
       </c>
       <c r="U8" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="V8" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="W8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="X8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Y8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>168</v>
+        <v>116</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:31">
       <c r="A9" s="1">
         <v>2795</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>12513</v>
@@ -1609,40 +1589,40 @@
         <v>13592</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="N9" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="P9" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="R9" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="S9">
         <v>12513</v>
@@ -1651,30 +1631,36 @@
         <v>13592</v>
       </c>
       <c r="U9" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="V9" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="W9" t="s">
-        <v>57</v>
-      </c>
-      <c r="X9" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="Y9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD9" t="s">
         <v>168</v>
       </c>
+      <c r="AE9" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:31">
       <c r="A10" s="1">
         <v>2887</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>229268</v>
@@ -1683,40 +1669,40 @@
         <v>229777</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="P10" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="Q10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="R10" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="S10">
         <v>229268</v>
@@ -1725,30 +1711,39 @@
         <v>229777</v>
       </c>
       <c r="U10" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="V10" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="W10" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="X10" t="s">
         <v>159</v>
       </c>
       <c r="Y10" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>168</v>
+        <v>116</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:31">
       <c r="A11" s="1">
         <v>2937</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>680</v>
@@ -1757,40 +1752,40 @@
         <v>5190</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="P11" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="Q11" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="R11" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="S11">
         <v>680</v>
@@ -1799,30 +1794,36 @@
         <v>5190</v>
       </c>
       <c r="U11" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="V11" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="W11" t="s">
-        <v>59</v>
-      </c>
-      <c r="X11" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="Y11" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>173</v>
+        <v>116</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:31">
       <c r="A12" s="1">
         <v>3812</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>445067</v>
@@ -1831,40 +1832,40 @@
         <v>446593</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="P12" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="Q12" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="R12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="S12">
         <v>445067</v>
@@ -1873,30 +1874,36 @@
         <v>446593</v>
       </c>
       <c r="U12" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="V12" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="W12" t="s">
-        <v>60</v>
-      </c>
-      <c r="X12" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="Y12" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>168</v>
+        <v>116</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:31">
       <c r="A13" s="1">
         <v>4065</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C13">
         <v>5009</v>
@@ -1905,34 +1912,34 @@
         <v>5314</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J13" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K13" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="P13" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q13" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="R13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="S13">
         <v>5009</v>
@@ -1941,104 +1948,119 @@
         <v>5314</v>
       </c>
       <c r="U13" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="V13" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="W13" t="s">
-        <v>61</v>
-      </c>
-      <c r="X13" t="s">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="Y13" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>168</v>
+        <v>116</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A14" s="5">
+    <row r="14" spans="1:31">
+      <c r="A14" s="1">
         <v>4787</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
         <v>660792</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14">
         <v>661424</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="P14" s="6" t="s">
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" t="s">
+        <v>127</v>
+      </c>
+      <c r="P14" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>116</v>
+      </c>
+      <c r="R14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14">
+        <v>660792</v>
+      </c>
+      <c r="T14">
+        <v>661424</v>
+      </c>
+      <c r="U14" t="s">
+        <v>153</v>
+      </c>
+      <c r="V14" t="s">
+        <v>153</v>
+      </c>
+      <c r="W14" t="s">
+        <v>69</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB14" t="s">
         <v>126</v>
       </c>
-      <c r="Q14" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S14" s="6">
-        <v>660792</v>
-      </c>
-      <c r="T14" s="6">
-        <v>661424</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="V14" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="W14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="X14" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z14" s="6" t="s">
-        <v>174</v>
+      <c r="AD14" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:31">
       <c r="A15" s="1">
         <v>4794</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <v>678731</v>
@@ -2047,40 +2069,40 @@
         <v>680415</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J15" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K15" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L15" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N15" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="P15" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="Q15" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="R15" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="S15">
         <v>678731</v>
@@ -2089,30 +2111,39 @@
         <v>680415</v>
       </c>
       <c r="U15" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="V15" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="W15" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="X15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Y15" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>168</v>
+        <v>116</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:31">
       <c r="A16" s="1">
         <v>4800</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>691467</v>
@@ -2121,40 +2152,40 @@
         <v>692450</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J16" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K16" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L16" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="N16" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="Q16" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="R16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="S16">
         <v>691467</v>
@@ -2163,30 +2194,36 @@
         <v>692450</v>
       </c>
       <c r="U16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="V16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="W16" t="s">
-        <v>64</v>
-      </c>
-      <c r="X16" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="Y16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>168</v>
+        <v>116</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:31">
       <c r="A17" s="1">
         <v>5072</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>469312</v>
@@ -2195,40 +2232,40 @@
         <v>470934</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J17" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K17" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L17" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="N17" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="P17" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="Q17" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="R17" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="S17">
         <v>469312</v>
@@ -2237,30 +2274,39 @@
         <v>470934</v>
       </c>
       <c r="U17" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="V17" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W17" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="X17" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="Y17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>168</v>
+        <v>116</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:31">
       <c r="A18" s="1">
         <v>5330</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>849</v>
@@ -2269,46 +2315,46 @@
         <v>1061</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J18" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K18" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L18" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="M18" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="N18" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="O18" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="P18" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="Q18" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="R18" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="S18">
         <v>849</v>
@@ -2317,22 +2363,31 @@
         <v>1061</v>
       </c>
       <c r="U18" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="V18" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="W18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="X18" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="Y18" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>168</v>
+        <v>116</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
